--- a/outputTime.xlsx
+++ b/outputTime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CAB301\CAB301-Assignment-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\CAB301 Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,12 +689,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1348,12 +1348,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2045,13 +2045,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Opeation</a:t>
+                  <a:t>Array Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Time</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2167,11 +2162,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Array</a:t>
+                  <a:t>Operation</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Size</a:t>
+                  <a:t> Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3229,7 +3224,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
